--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cxcl12-Ackr3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cxcl12-Ackr3.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>145.002022</v>
+        <v>268.2087325</v>
       </c>
       <c r="H2">
-        <v>290.004044</v>
+        <v>536.417465</v>
       </c>
       <c r="I2">
-        <v>0.2376076076529671</v>
+        <v>0.4408953672422407</v>
       </c>
       <c r="J2">
-        <v>0.1752271928451109</v>
+        <v>0.3544767530189387</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>18.2502405</v>
+        <v>21.1911965</v>
       </c>
       <c r="N2">
-        <v>36.500481</v>
+        <v>42.382393</v>
       </c>
       <c r="O2">
-        <v>0.2786312431497853</v>
+        <v>0.3869569520728072</v>
       </c>
       <c r="P2">
-        <v>0.2136098924258372</v>
+        <v>0.30974949002933</v>
       </c>
       <c r="Q2">
-        <v>2646.321774486291</v>
+        <v>5683.663953423436</v>
       </c>
       <c r="R2">
-        <v>10585.28709794517</v>
+        <v>22734.65581369375</v>
       </c>
       <c r="S2">
-        <v>0.06620490310219267</v>
+        <v>0.1706075274910785</v>
       </c>
       <c r="T2">
-        <v>0.03743026181372556</v>
+        <v>0.109798993474869</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>145.002022</v>
+        <v>268.2087325</v>
       </c>
       <c r="H3">
-        <v>290.004044</v>
+        <v>536.417465</v>
       </c>
       <c r="I3">
-        <v>0.2376076076529671</v>
+        <v>0.4408953672422407</v>
       </c>
       <c r="J3">
-        <v>0.1752271928451109</v>
+        <v>0.3544767530189387</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>27.08897866666666</v>
+        <v>27.08897866666667</v>
       </c>
       <c r="N3">
-        <v>81.26693599999999</v>
+        <v>81.26693600000002</v>
       </c>
       <c r="O3">
-        <v>0.4135745938006322</v>
+        <v>0.494652041927818</v>
       </c>
       <c r="P3">
-        <v>0.4755943204347743</v>
+        <v>0.593935127312094</v>
       </c>
       <c r="Q3">
-        <v>3927.95668058153</v>
+        <v>7265.500632906208</v>
       </c>
       <c r="R3">
-        <v>23567.74008348918</v>
+        <v>43593.00379743725</v>
       </c>
       <c r="S3">
-        <v>0.09826846981901584</v>
+        <v>0.2180897936828896</v>
       </c>
       <c r="T3">
-        <v>0.08333705770286365</v>
+        <v>0.2105361954334811</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>145.002022</v>
+        <v>268.2087325</v>
       </c>
       <c r="H4">
-        <v>290.004044</v>
+        <v>536.417465</v>
       </c>
       <c r="I4">
-        <v>0.2376076076529671</v>
+        <v>0.4408953672422407</v>
       </c>
       <c r="J4">
-        <v>0.1752271928451109</v>
+        <v>0.3544767530189387</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -685,28 +685,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.01819633333333333</v>
+        <v>0.049687</v>
       </c>
       <c r="N4">
-        <v>0.054589</v>
+        <v>0.149061</v>
       </c>
       <c r="O4">
-        <v>0.0002778082281948308</v>
+        <v>0.0009072979941289096</v>
       </c>
       <c r="P4">
-        <v>0.0003194684042008659</v>
+        <v>0.001089404478252607</v>
       </c>
       <c r="Q4">
-        <v>2.638505126319333</v>
+        <v>13.3264872917275</v>
       </c>
       <c r="R4">
-        <v>15.831030757916</v>
+        <v>79.958923750365</v>
       </c>
       <c r="S4">
-        <v>6.600934848768332E-05</v>
+        <v>0.0004000234823196139</v>
       </c>
       <c r="T4">
-        <v>5.597955167082495E-05</v>
+        <v>0.0003861685621752752</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>145.002022</v>
+        <v>268.2087325</v>
       </c>
       <c r="H5">
-        <v>290.004044</v>
+        <v>536.417465</v>
       </c>
       <c r="I5">
-        <v>0.2376076076529671</v>
+        <v>0.4408953672422407</v>
       </c>
       <c r="J5">
-        <v>0.1752271928451109</v>
+        <v>0.3544767530189387</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.374130999999999</v>
+        <v>6.271952499999999</v>
       </c>
       <c r="N5">
-        <v>14.748262</v>
+        <v>12.543905</v>
       </c>
       <c r="O5">
-        <v>0.1125828061103836</v>
+        <v>0.1145275408561958</v>
       </c>
       <c r="P5">
-        <v>0.08631049709421806</v>
+        <v>0.09167646991349361</v>
       </c>
       <c r="Q5">
-        <v>1069.263905492882</v>
+        <v>1682.192430325206</v>
       </c>
       <c r="R5">
-        <v>4277.055621971528</v>
+        <v>6728.769721300824</v>
       </c>
       <c r="S5">
-        <v>0.02675053122274608</v>
+        <v>0.05049466218514316</v>
       </c>
       <c r="T5">
-        <v>0.01512394611888593</v>
+        <v>0.03249717738317364</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>145.002022</v>
+        <v>268.2087325</v>
       </c>
       <c r="H6">
-        <v>290.004044</v>
+        <v>536.417465</v>
       </c>
       <c r="I6">
-        <v>0.2376076076529671</v>
+        <v>0.4408953672422407</v>
       </c>
       <c r="J6">
-        <v>0.1752271928451109</v>
+        <v>0.3544767530189387</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>12.76807333333333</v>
+        <v>0.1618906666666667</v>
       </c>
       <c r="N6">
-        <v>38.30422</v>
+        <v>0.485672</v>
       </c>
       <c r="O6">
-        <v>0.1949335487110041</v>
+        <v>0.002956167149050226</v>
       </c>
       <c r="P6">
-        <v>0.2241658216409696</v>
+        <v>0.003549508266829689</v>
       </c>
       <c r="Q6">
-        <v>1851.396450377614</v>
+        <v>43.42049051024667</v>
       </c>
       <c r="R6">
-        <v>11108.37870226568</v>
+        <v>260.52294306148</v>
       </c>
       <c r="S6">
-        <v>0.04631769416052482</v>
+        <v>0.001303360400809947</v>
       </c>
       <c r="T6">
-        <v>0.03927994765796491</v>
+        <v>0.001258218165239669</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,10 +859,10 @@
         <v>887.9227290000001</v>
       </c>
       <c r="I7">
-        <v>0.4849982837213673</v>
+        <v>0.4865377474677459</v>
       </c>
       <c r="J7">
-        <v>0.5365035780881736</v>
+        <v>0.5867593552488733</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>18.2502405</v>
+        <v>21.1911965</v>
       </c>
       <c r="N7">
-        <v>36.500481</v>
+        <v>42.382393</v>
       </c>
       <c r="O7">
-        <v>0.2786312431497853</v>
+        <v>0.3869569520728072</v>
       </c>
       <c r="P7">
-        <v>0.2136098924258372</v>
+        <v>0.30974949002933</v>
       </c>
       <c r="Q7">
-        <v>5401.601116555443</v>
+        <v>6272.048342351751</v>
       </c>
       <c r="R7">
-        <v>32409.60669933265</v>
+        <v>37632.2900541105</v>
       </c>
       <c r="S7">
-        <v>0.1351356747187969</v>
+        <v>0.1882691638284881</v>
       </c>
       <c r="T7">
-        <v>0.1146024716014915</v>
+        <v>0.181748411058277</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>887.9227290000001</v>
       </c>
       <c r="I8">
-        <v>0.4849982837213673</v>
+        <v>0.4865377474677459</v>
       </c>
       <c r="J8">
-        <v>0.5365035780881736</v>
+        <v>0.5867593552488733</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>27.08897866666666</v>
+        <v>27.08897866666667</v>
       </c>
       <c r="N8">
-        <v>81.26693599999999</v>
+        <v>81.26693600000002</v>
       </c>
       <c r="O8">
-        <v>0.4135745938006322</v>
+        <v>0.494652041927818</v>
       </c>
       <c r="P8">
-        <v>0.4755943204347743</v>
+        <v>0.593935127312094</v>
       </c>
       <c r="Q8">
-        <v>8017.639954509817</v>
+        <v>8017.639954509819</v>
       </c>
       <c r="R8">
-        <v>72158.75959058834</v>
+        <v>72158.75959058836</v>
       </c>
       <c r="S8">
-        <v>0.2005829681840682</v>
+        <v>0.2406668902598816</v>
       </c>
       <c r="T8">
-        <v>0.2551580546316698</v>
+        <v>0.3484969923613018</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>887.9227290000001</v>
       </c>
       <c r="I9">
-        <v>0.4849982837213673</v>
+        <v>0.4865377474677459</v>
       </c>
       <c r="J9">
-        <v>0.5365035780881736</v>
+        <v>0.5867593552488733</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -995,28 +995,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.01819633333333333</v>
+        <v>0.049687</v>
       </c>
       <c r="N9">
-        <v>0.054589</v>
+        <v>0.149061</v>
       </c>
       <c r="O9">
-        <v>0.0002778082281948308</v>
+        <v>0.0009072979941289096</v>
       </c>
       <c r="P9">
-        <v>0.0003194684042008659</v>
+        <v>0.001089404478252607</v>
       </c>
       <c r="Q9">
-        <v>5.385645983709001</v>
+        <v>14.706072211941</v>
       </c>
       <c r="R9">
-        <v>48.470813853381</v>
+        <v>132.354649907469</v>
       </c>
       <c r="S9">
-        <v>0.0001347365138781669</v>
+        <v>0.0004414347223454838</v>
       </c>
       <c r="T9">
-        <v>0.0001713959419398835</v>
+        <v>0.0006392182692647351</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>887.9227290000001</v>
       </c>
       <c r="I10">
-        <v>0.4849982837213673</v>
+        <v>0.4865377474677459</v>
       </c>
       <c r="J10">
-        <v>0.5365035780881736</v>
+        <v>0.5867593552488733</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.374130999999999</v>
+        <v>6.271952499999999</v>
       </c>
       <c r="N10">
-        <v>14.748262</v>
+        <v>12.543905</v>
       </c>
       <c r="O10">
-        <v>0.1125828061103836</v>
+        <v>0.1145275408561958</v>
       </c>
       <c r="P10">
-        <v>0.08631049709421806</v>
+        <v>0.09167646991349361</v>
       </c>
       <c r="Q10">
-        <v>2182.552840507833</v>
+        <v>1856.336393319458</v>
       </c>
       <c r="R10">
-        <v>13095.317043047</v>
+        <v>11138.01835991674</v>
       </c>
       <c r="S10">
-        <v>0.05460246774007149</v>
+        <v>0.05572197175119373</v>
       </c>
       <c r="T10">
-        <v>0.0463058905176169</v>
+        <v>0.05379202637793425</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,40 +1107,40 @@
         <v>887.9227290000001</v>
       </c>
       <c r="I11">
-        <v>0.4849982837213673</v>
+        <v>0.4865377474677459</v>
       </c>
       <c r="J11">
-        <v>0.5365035780881736</v>
+        <v>0.5867593552488733</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>12.76807333333333</v>
+        <v>0.1618906666666667</v>
       </c>
       <c r="N11">
-        <v>38.30422</v>
+        <v>0.485672</v>
       </c>
       <c r="O11">
-        <v>0.1949335487110041</v>
+        <v>0.002956167149050226</v>
       </c>
       <c r="P11">
-        <v>0.2241658216409696</v>
+        <v>0.003549508266829689</v>
       </c>
       <c r="Q11">
-        <v>3779.020839401821</v>
+        <v>47.91546751543201</v>
       </c>
       <c r="R11">
-        <v>34011.18755461639</v>
+        <v>431.239207638888</v>
       </c>
       <c r="S11">
-        <v>0.09454243656455256</v>
+        <v>0.001438286905837045</v>
       </c>
       <c r="T11">
-        <v>0.1202657653954555</v>
+        <v>0.002082707182095534</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,22 +1157,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.1807913333333333</v>
+        <v>0.01708533333333333</v>
       </c>
       <c r="H12">
-        <v>0.542374</v>
+        <v>0.051256</v>
       </c>
       <c r="I12">
-        <v>0.0002962537736040912</v>
+        <v>2.808575337663958E-05</v>
       </c>
       <c r="J12">
-        <v>0.0003277149938370313</v>
+        <v>3.387112023419805E-05</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>18.2502405</v>
+        <v>21.1911965</v>
       </c>
       <c r="N12">
-        <v>36.500481</v>
+        <v>42.382393</v>
       </c>
       <c r="O12">
-        <v>0.2786312431497853</v>
+        <v>0.3869569520728072</v>
       </c>
       <c r="P12">
-        <v>0.2136098924258372</v>
+        <v>0.30974949002933</v>
       </c>
       <c r="Q12">
-        <v>3.299485313649</v>
+        <v>0.3620586559346667</v>
       </c>
       <c r="R12">
-        <v>19.796911881894</v>
+        <v>2.172351935608</v>
       </c>
       <c r="S12">
-        <v>8.254555722712299E-05</v>
+        <v>1.0867977523293E-05</v>
       </c>
       <c r="T12">
-        <v>7.000316457986215E-05</v>
+        <v>1.049156221926497E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,22 +1219,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.1807913333333333</v>
+        <v>0.01708533333333333</v>
       </c>
       <c r="H13">
-        <v>0.542374</v>
+        <v>0.051256</v>
       </c>
       <c r="I13">
-        <v>0.0002962537736040912</v>
+        <v>2.808575337663958E-05</v>
       </c>
       <c r="J13">
-        <v>0.0003277149938370313</v>
+        <v>3.387112023419805E-05</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>27.08897866666666</v>
+        <v>27.08897866666667</v>
       </c>
       <c r="N13">
-        <v>81.26693599999999</v>
+        <v>81.26693600000002</v>
       </c>
       <c r="O13">
-        <v>0.4135745938006322</v>
+        <v>0.494652041927818</v>
       </c>
       <c r="P13">
-        <v>0.4755943204347743</v>
+        <v>0.593935127312094</v>
       </c>
       <c r="Q13">
-        <v>4.897452571784888</v>
+        <v>0.4628242301795557</v>
       </c>
       <c r="R13">
-        <v>44.077073146064</v>
+        <v>4.165418071616001</v>
       </c>
       <c r="S13">
-        <v>0.0001225230340802165</v>
+        <v>1.389267525683588E-05</v>
       </c>
       <c r="T13">
-        <v>0.0001558593897902092</v>
+        <v>2.011724810850166E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.1807913333333333</v>
+        <v>0.01708533333333333</v>
       </c>
       <c r="H14">
-        <v>0.542374</v>
+        <v>0.051256</v>
       </c>
       <c r="I14">
-        <v>0.0002962537736040912</v>
+        <v>2.808575337663958E-05</v>
       </c>
       <c r="J14">
-        <v>0.0003277149938370313</v>
+        <v>3.387112023419805E-05</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1305,28 +1305,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.01819633333333333</v>
+        <v>0.049687</v>
       </c>
       <c r="N14">
-        <v>0.054589</v>
+        <v>0.149061</v>
       </c>
       <c r="O14">
-        <v>0.0002778082281948308</v>
+        <v>0.0009072979941289096</v>
       </c>
       <c r="P14">
-        <v>0.0003194684042008659</v>
+        <v>0.001089404478252607</v>
       </c>
       <c r="Q14">
-        <v>0.003289739365111111</v>
+        <v>0.0008489189573333334</v>
       </c>
       <c r="R14">
-        <v>0.029607654286</v>
+        <v>0.007640270616</v>
       </c>
       <c r="S14">
-        <v>8.230173594098512E-08</v>
+        <v>2.548214770222434E-08</v>
       </c>
       <c r="T14">
-        <v>1.04694586113813E-07</v>
+        <v>3.689935006656785E-08</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.1807913333333333</v>
+        <v>0.01708533333333333</v>
       </c>
       <c r="H15">
-        <v>0.542374</v>
+        <v>0.051256</v>
       </c>
       <c r="I15">
-        <v>0.0002962537736040912</v>
+        <v>2.808575337663958E-05</v>
       </c>
       <c r="J15">
-        <v>0.0003277149938370313</v>
+        <v>3.387112023419805E-05</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>7.374130999999999</v>
+        <v>6.271952499999999</v>
       </c>
       <c r="N15">
-        <v>14.748262</v>
+        <v>12.543905</v>
       </c>
       <c r="O15">
-        <v>0.1125828061103836</v>
+        <v>0.1145275408561958</v>
       </c>
       <c r="P15">
-        <v>0.08631049709421806</v>
+        <v>0.09167646991349361</v>
       </c>
       <c r="Q15">
-        <v>1.333178975664667</v>
+        <v>0.1071583991133333</v>
       </c>
       <c r="R15">
-        <v>7.999073853988</v>
+        <v>0.6429503946799999</v>
       </c>
       <c r="S15">
-        <v>3.335308115313887E-05</v>
+        <v>3.216592267320127E-06</v>
       </c>
       <c r="T15">
-        <v>2.828524402330278E-05</v>
+        <v>3.105184735086782E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,55 +1402,55 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.1807913333333333</v>
+        <v>0.01708533333333333</v>
       </c>
       <c r="H16">
-        <v>0.542374</v>
+        <v>0.051256</v>
       </c>
       <c r="I16">
-        <v>0.0002962537736040912</v>
+        <v>2.808575337663958E-05</v>
       </c>
       <c r="J16">
-        <v>0.0003277149938370313</v>
+        <v>3.387112023419805E-05</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>12.76807333333333</v>
+        <v>0.1618906666666667</v>
       </c>
       <c r="N16">
-        <v>38.30422</v>
+        <v>0.485672</v>
       </c>
       <c r="O16">
-        <v>0.1949335487110041</v>
+        <v>0.002956167149050226</v>
       </c>
       <c r="P16">
-        <v>0.2241658216409696</v>
+        <v>0.003549508266829689</v>
       </c>
       <c r="Q16">
-        <v>2.308357002031111</v>
+        <v>0.002765956003555556</v>
       </c>
       <c r="R16">
-        <v>20.77521301828</v>
+        <v>0.024893604032</v>
       </c>
       <c r="S16">
-        <v>5.774979940767191E-05</v>
+        <v>8.302618148834838E-08</v>
       </c>
       <c r="T16">
-        <v>7.346250085754342E-05</v>
+        <v>1.202258212780683E-07</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>30.755622</v>
+        <v>43.5079</v>
       </c>
       <c r="H17">
-        <v>61.511244</v>
+        <v>87.0158</v>
       </c>
       <c r="I17">
-        <v>0.05039770938710746</v>
+        <v>0.0715205331669754</v>
       </c>
       <c r="J17">
-        <v>0.03716652521759548</v>
+        <v>0.05750200218657192</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>18.2502405</v>
+        <v>21.1911965</v>
       </c>
       <c r="N17">
-        <v>36.500481</v>
+        <v>42.382393</v>
       </c>
       <c r="O17">
-        <v>0.2786312431497853</v>
+        <v>0.3869569520728072</v>
       </c>
       <c r="P17">
-        <v>0.2136098924258372</v>
+        <v>0.30974949002933</v>
       </c>
       <c r="Q17">
-        <v>561.297498227091</v>
+        <v>921.98445820235</v>
       </c>
       <c r="R17">
-        <v>2245.189992908364</v>
+        <v>3687.9378328094</v>
       </c>
       <c r="S17">
-        <v>0.01404237641843136</v>
+        <v>0.02767536752491492</v>
       </c>
       <c r="T17">
-        <v>0.007939137453572734</v>
+        <v>0.01781121585295607</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>30.755622</v>
+        <v>43.5079</v>
       </c>
       <c r="H18">
-        <v>61.511244</v>
+        <v>87.0158</v>
       </c>
       <c r="I18">
-        <v>0.05039770938710746</v>
+        <v>0.0715205331669754</v>
       </c>
       <c r="J18">
-        <v>0.03716652521759548</v>
+        <v>0.05750200218657192</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>27.08897866666666</v>
+        <v>27.08897866666667</v>
       </c>
       <c r="N18">
-        <v>81.26693599999999</v>
+        <v>81.26693600000002</v>
       </c>
       <c r="O18">
-        <v>0.4135745938006322</v>
+        <v>0.494652041927818</v>
       </c>
       <c r="P18">
-        <v>0.4755943204347743</v>
+        <v>0.593935127312094</v>
       </c>
       <c r="Q18">
-        <v>833.1383882380638</v>
+        <v>1178.584574931467</v>
       </c>
       <c r="R18">
-        <v>4998.830329428383</v>
+        <v>7071.507449588801</v>
       </c>
       <c r="S18">
-        <v>0.02084321218825527</v>
+        <v>0.03537777777081062</v>
       </c>
       <c r="T18">
-        <v>0.01767618830378422</v>
+        <v>0.0341524589893819</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>30.755622</v>
+        <v>43.5079</v>
       </c>
       <c r="H19">
-        <v>61.511244</v>
+        <v>87.0158</v>
       </c>
       <c r="I19">
-        <v>0.05039770938710746</v>
+        <v>0.0715205331669754</v>
       </c>
       <c r="J19">
-        <v>0.03716652521759548</v>
+        <v>0.05750200218657192</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -1615,28 +1615,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.01819633333333333</v>
+        <v>0.049687</v>
       </c>
       <c r="N19">
-        <v>0.054589</v>
+        <v>0.149061</v>
       </c>
       <c r="O19">
-        <v>0.0002778082281948308</v>
+        <v>0.0009072979941289096</v>
       </c>
       <c r="P19">
-        <v>0.0003194684042008659</v>
+        <v>0.001089404478252607</v>
       </c>
       <c r="Q19">
-        <v>0.5596395497859999</v>
+        <v>2.1617770273</v>
       </c>
       <c r="R19">
-        <v>3.357837298716</v>
+        <v>12.9706621638</v>
       </c>
       <c r="S19">
-        <v>1.400089834991031E-05</v>
+        <v>6.489043628142693E-05</v>
       </c>
       <c r="T19">
-        <v>1.187353050095647E-05</v>
+        <v>6.264293869054267E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>30.755622</v>
+        <v>43.5079</v>
       </c>
       <c r="H20">
-        <v>61.511244</v>
+        <v>87.0158</v>
       </c>
       <c r="I20">
-        <v>0.05039770938710746</v>
+        <v>0.0715205331669754</v>
       </c>
       <c r="J20">
-        <v>0.03716652521759548</v>
+        <v>0.05750200218657192</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>7.374130999999999</v>
+        <v>6.271952499999999</v>
       </c>
       <c r="N20">
-        <v>14.748262</v>
+        <v>12.543905</v>
       </c>
       <c r="O20">
-        <v>0.1125828061103836</v>
+        <v>0.1145275408561958</v>
       </c>
       <c r="P20">
-        <v>0.08631049709421806</v>
+        <v>0.09167646991349361</v>
       </c>
       <c r="Q20">
-        <v>226.795985614482</v>
+        <v>272.87948217475</v>
       </c>
       <c r="R20">
-        <v>907.1839424579279</v>
+        <v>1091.517928699</v>
       </c>
       <c r="S20">
-        <v>0.005673915544336176</v>
+        <v>0.00819107078433768</v>
       </c>
       <c r="T20">
-        <v>0.003207861266795457</v>
+        <v>0.005271580573422904</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,7 +1712,7 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -1721,46 +1721,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>30.755622</v>
+        <v>43.5079</v>
       </c>
       <c r="H21">
-        <v>61.511244</v>
+        <v>87.0158</v>
       </c>
       <c r="I21">
-        <v>0.05039770938710746</v>
+        <v>0.0715205331669754</v>
       </c>
       <c r="J21">
-        <v>0.03716652521759548</v>
+        <v>0.05750200218657192</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>12.76807333333333</v>
+        <v>0.1618906666666667</v>
       </c>
       <c r="N21">
-        <v>38.30422</v>
+        <v>0.485672</v>
       </c>
       <c r="O21">
-        <v>0.1949335487110041</v>
+        <v>0.002956167149050226</v>
       </c>
       <c r="P21">
-        <v>0.2241658216409696</v>
+        <v>0.003549508266829689</v>
       </c>
       <c r="Q21">
-        <v>392.69003710828</v>
+        <v>7.043522936266666</v>
       </c>
       <c r="R21">
-        <v>2356.14022264968</v>
+        <v>42.2611376176</v>
       </c>
       <c r="S21">
-        <v>0.009824204337734741</v>
+        <v>0.0002114266506307698</v>
       </c>
       <c r="T21">
-        <v>0.008331464662942108</v>
+        <v>0.0002041038321204959</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>137.6068803333333</v>
+        <v>0.576426</v>
       </c>
       <c r="H22">
-        <v>412.820641</v>
+        <v>1.729278</v>
       </c>
       <c r="I22">
-        <v>0.2254895565014359</v>
+        <v>0.0009475588307251548</v>
       </c>
       <c r="J22">
-        <v>0.2494358391462612</v>
+        <v>0.001142745884508224</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>18.2502405</v>
+        <v>21.1911965</v>
       </c>
       <c r="N22">
-        <v>36.500481</v>
+        <v>42.382393</v>
       </c>
       <c r="O22">
-        <v>0.2786312431497853</v>
+        <v>0.3869569520728072</v>
       </c>
       <c r="P22">
-        <v>0.2136098924258372</v>
+        <v>0.30974949002933</v>
       </c>
       <c r="Q22">
-        <v>2511.358660538053</v>
+        <v>12.215156633709</v>
       </c>
       <c r="R22">
-        <v>15068.15196322832</v>
+        <v>73.290939802254</v>
       </c>
       <c r="S22">
-        <v>0.06282843544528885</v>
+        <v>0.0003666644770470789</v>
       </c>
       <c r="T22">
-        <v>0.05328196276718129</v>
+        <v>0.000353964954959538</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>137.6068803333333</v>
+        <v>0.576426</v>
       </c>
       <c r="H23">
-        <v>412.820641</v>
+        <v>1.729278</v>
       </c>
       <c r="I23">
-        <v>0.2254895565014359</v>
+        <v>0.0009475588307251548</v>
       </c>
       <c r="J23">
-        <v>0.2494358391462612</v>
+        <v>0.001142745884508224</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>27.08897866666666</v>
+        <v>27.08897866666667</v>
       </c>
       <c r="N23">
-        <v>81.26693599999999</v>
+        <v>81.26693600000002</v>
       </c>
       <c r="O23">
-        <v>0.4135745938006322</v>
+        <v>0.494652041927818</v>
       </c>
       <c r="P23">
-        <v>0.4755943204347743</v>
+        <v>0.593935127312094</v>
       </c>
       <c r="Q23">
-        <v>3727.629845736219</v>
+        <v>15.614791616912</v>
       </c>
       <c r="R23">
-        <v>33548.66861162597</v>
+        <v>140.533124552208</v>
       </c>
       <c r="S23">
-        <v>0.09325675173636606</v>
+        <v>0.0004687119104649335</v>
       </c>
       <c r="T23">
-        <v>0.1186302684108438</v>
+        <v>0.0006787169224007634</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>137.6068803333333</v>
+        <v>0.576426</v>
       </c>
       <c r="H24">
-        <v>412.820641</v>
+        <v>1.729278</v>
       </c>
       <c r="I24">
-        <v>0.2254895565014359</v>
+        <v>0.0009475588307251548</v>
       </c>
       <c r="J24">
-        <v>0.2494358391462612</v>
+        <v>0.001142745884508224</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -1925,28 +1925,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M24">
-        <v>0.01819633333333333</v>
+        <v>0.049687</v>
       </c>
       <c r="N24">
-        <v>0.054589</v>
+        <v>0.149061</v>
       </c>
       <c r="O24">
-        <v>0.0002778082281948308</v>
+        <v>0.0009072979941289096</v>
       </c>
       <c r="P24">
-        <v>0.0003194684042008659</v>
+        <v>0.001089404478252607</v>
       </c>
       <c r="Q24">
-        <v>2.503940663505444</v>
+        <v>0.028640878662</v>
       </c>
       <c r="R24">
-        <v>22.535465971549</v>
+        <v>0.257767907958</v>
       </c>
       <c r="S24">
-        <v>6.264285416810211E-05</v>
+        <v>8.59718226436068E-07</v>
       </c>
       <c r="T24">
-        <v>7.968686948255995E-05</v>
+        <v>1.244912484087996E-06</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>137.6068803333333</v>
+        <v>0.576426</v>
       </c>
       <c r="H25">
-        <v>412.820641</v>
+        <v>1.729278</v>
       </c>
       <c r="I25">
-        <v>0.2254895565014359</v>
+        <v>0.0009475588307251548</v>
       </c>
       <c r="J25">
-        <v>0.2494358391462612</v>
+        <v>0.001142745884508224</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>7.374130999999999</v>
+        <v>6.271952499999999</v>
       </c>
       <c r="N25">
-        <v>14.748262</v>
+        <v>12.543905</v>
       </c>
       <c r="O25">
-        <v>0.1125828061103836</v>
+        <v>0.1145275408561958</v>
       </c>
       <c r="P25">
-        <v>0.08631049709421806</v>
+        <v>0.09167646991349361</v>
       </c>
       <c r="Q25">
-        <v>1014.731162079323</v>
+        <v>3.615316491765</v>
       </c>
       <c r="R25">
-        <v>6088.386972475941</v>
+        <v>21.69189895059</v>
       </c>
       <c r="S25">
-        <v>0.02538624701951754</v>
+        <v>0.0001085215826995243</v>
       </c>
       <c r="T25">
-        <v>0.02152893126982722</v>
+        <v>0.0001047629086998868</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,7 +2022,7 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E26">
         <v>3</v>
@@ -2031,46 +2031,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>137.6068803333333</v>
+        <v>0.576426</v>
       </c>
       <c r="H26">
-        <v>412.820641</v>
+        <v>1.729278</v>
       </c>
       <c r="I26">
-        <v>0.2254895565014359</v>
+        <v>0.0009475588307251548</v>
       </c>
       <c r="J26">
-        <v>0.2494358391462612</v>
+        <v>0.001142745884508224</v>
       </c>
       <c r="K26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M26">
-        <v>12.76807333333333</v>
+        <v>0.1618906666666667</v>
       </c>
       <c r="N26">
-        <v>38.30422</v>
+        <v>0.485672</v>
       </c>
       <c r="O26">
-        <v>0.1949335487110041</v>
+        <v>0.002956167149050226</v>
       </c>
       <c r="P26">
-        <v>0.2241658216409696</v>
+        <v>0.003549508266829689</v>
       </c>
       <c r="Q26">
-        <v>1756.974739267224</v>
+        <v>0.09331798942399999</v>
       </c>
       <c r="R26">
-        <v>15812.77265340502</v>
+        <v>0.8398619048159999</v>
       </c>
       <c r="S26">
-        <v>0.04395547944609538</v>
+        <v>2.801142287182146E-06</v>
       </c>
       <c r="T26">
-        <v>0.05591498982892639</v>
+        <v>4.056185963947546E-06</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>20</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>0.738772</v>
+        <v>0.04301333333333333</v>
       </c>
       <c r="H27">
-        <v>2.216316</v>
+        <v>0.12904</v>
       </c>
       <c r="I27">
-        <v>0.001210588963518025</v>
+        <v>7.07075389363503E-05</v>
       </c>
       <c r="J27">
-        <v>0.00133914970902166</v>
+        <v>8.527254087367168E-05</v>
       </c>
       <c r="K27">
         <v>2</v>
@@ -2111,28 +2111,28 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>18.2502405</v>
+        <v>21.1911965</v>
       </c>
       <c r="N27">
-        <v>36.500481</v>
+        <v>42.382393</v>
       </c>
       <c r="O27">
-        <v>0.2786312431497853</v>
+        <v>0.3869569520728072</v>
       </c>
       <c r="P27">
-        <v>0.2136098924258372</v>
+        <v>0.30974949002933</v>
       </c>
       <c r="Q27">
-        <v>13.482766674666</v>
+        <v>0.9115039987866665</v>
       </c>
       <c r="R27">
-        <v>80.896600047996</v>
+        <v>5.46902399272</v>
       </c>
       <c r="S27">
-        <v>0.0003373079078484373</v>
+        <v>2.736077375537945E-05</v>
       </c>
       <c r="T27">
-        <v>0.000286055625286208</v>
+        <v>2.6413126049125E-05</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,22 +2149,22 @@
         <v>21</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>0.738772</v>
+        <v>0.04301333333333333</v>
       </c>
       <c r="H28">
-        <v>2.216316</v>
+        <v>0.12904</v>
       </c>
       <c r="I28">
-        <v>0.001210588963518025</v>
+        <v>7.07075389363503E-05</v>
       </c>
       <c r="J28">
-        <v>0.00133914970902166</v>
+        <v>8.527254087367168E-05</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>27.08897866666666</v>
+        <v>27.08897866666667</v>
       </c>
       <c r="N28">
-        <v>81.26693599999999</v>
+        <v>81.26693600000002</v>
       </c>
       <c r="O28">
-        <v>0.4135745938006322</v>
+        <v>0.494652041927818</v>
       </c>
       <c r="P28">
-        <v>0.4755943204347743</v>
+        <v>0.593935127312094</v>
       </c>
       <c r="Q28">
-        <v>20.01257894753066</v>
+        <v>1.165187269048889</v>
       </c>
       <c r="R28">
-        <v>180.113210527776</v>
+        <v>10.48668542144</v>
       </c>
       <c r="S28">
-        <v>0.0005006688388464953</v>
+        <v>3.497562851455638E-05</v>
       </c>
       <c r="T28">
-        <v>0.0006368919958225822</v>
+        <v>5.064635742002992E-05</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>22</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>0.738772</v>
+        <v>0.04301333333333333</v>
       </c>
       <c r="H29">
-        <v>2.216316</v>
+        <v>0.12904</v>
       </c>
       <c r="I29">
-        <v>0.001210588963518025</v>
+        <v>7.07075389363503E-05</v>
       </c>
       <c r="J29">
-        <v>0.00133914970902166</v>
+        <v>8.527254087367168E-05</v>
       </c>
       <c r="K29">
         <v>1</v>
@@ -2235,28 +2235,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M29">
-        <v>0.01819633333333333</v>
+        <v>0.049687</v>
       </c>
       <c r="N29">
-        <v>0.054589</v>
+        <v>0.149061</v>
       </c>
       <c r="O29">
-        <v>0.0002778082281948308</v>
+        <v>0.0009072979941289096</v>
       </c>
       <c r="P29">
-        <v>0.0003194684042008659</v>
+        <v>0.001089404478252607</v>
       </c>
       <c r="Q29">
-        <v>0.01344294156933333</v>
+        <v>0.002137203493333333</v>
       </c>
       <c r="R29">
-        <v>0.120986474124</v>
+        <v>0.01923483144</v>
       </c>
       <c r="S29">
-        <v>3.363115750271591E-07</v>
+        <v>6.41528082467424E-08</v>
       </c>
       <c r="T29">
-        <v>4.278160205272036E-07</v>
+        <v>9.289628789975642E-08</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,22 +2273,22 @@
         <v>23</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>0.738772</v>
+        <v>0.04301333333333333</v>
       </c>
       <c r="H30">
-        <v>2.216316</v>
+        <v>0.12904</v>
       </c>
       <c r="I30">
-        <v>0.001210588963518025</v>
+        <v>7.07075389363503E-05</v>
       </c>
       <c r="J30">
-        <v>0.00133914970902166</v>
+        <v>8.527254087367168E-05</v>
       </c>
       <c r="K30">
         <v>2</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>7.374130999999999</v>
+        <v>6.271952499999999</v>
       </c>
       <c r="N30">
-        <v>14.748262</v>
+        <v>12.543905</v>
       </c>
       <c r="O30">
-        <v>0.1125828061103836</v>
+        <v>0.1145275408561958</v>
       </c>
       <c r="P30">
-        <v>0.08631049709421806</v>
+        <v>0.09167646991349361</v>
       </c>
       <c r="Q30">
-        <v>5.447801507132</v>
+        <v>0.2697775835333333</v>
       </c>
       <c r="R30">
-        <v>32.686809042792</v>
+        <v>1.6186655012</v>
       </c>
       <c r="S30">
-        <v>0.0001362915025591199</v>
+        <v>8.097960554373911E-06</v>
       </c>
       <c r="T30">
-        <v>0.000115582677069237</v>
+        <v>7.817485527852315E-06</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2332,55 +2332,55 @@
         <v>27</v>
       </c>
       <c r="D31" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>0.738772</v>
+        <v>0.04301333333333333</v>
       </c>
       <c r="H31">
-        <v>2.216316</v>
+        <v>0.12904</v>
       </c>
       <c r="I31">
-        <v>0.001210588963518025</v>
+        <v>7.07075389363503E-05</v>
       </c>
       <c r="J31">
-        <v>0.00133914970902166</v>
+        <v>8.527254087367168E-05</v>
       </c>
       <c r="K31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L31">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M31">
-        <v>12.76807333333333</v>
+        <v>0.1618906666666667</v>
       </c>
       <c r="N31">
-        <v>38.30422</v>
+        <v>0.485672</v>
       </c>
       <c r="O31">
-        <v>0.1949335487110041</v>
+        <v>0.002956167149050226</v>
       </c>
       <c r="P31">
-        <v>0.2241658216409696</v>
+        <v>0.003549508266829689</v>
       </c>
       <c r="Q31">
-        <v>9.432695072613333</v>
+        <v>0.006963457208888887</v>
       </c>
       <c r="R31">
-        <v>84.89425565352001</v>
+        <v>0.06267111487999999</v>
       </c>
       <c r="S31">
-        <v>0.0002359844026889448</v>
+        <v>2.090233037938285E-07</v>
       </c>
       <c r="T31">
-        <v>0.0003001915948231059</v>
+        <v>3.026755887646702E-07</v>
       </c>
     </row>
   </sheetData>
